--- a/bin/xlsx/102_CreatePlayer_创建角色.xlsx
+++ b/bin/xlsx/102_CreatePlayer_创建角色.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>Id</t>
   </si>
@@ -31,6 +31,15 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>#唯一Id</t>
+  </si>
+  <si>
+    <t>角色Id</t>
+  </si>
+  <si>
+    <t>描述</t>
   </si>
   <si>
     <t>desc1</t>
@@ -113,12 +122,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,14 +145,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -151,53 +160,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,6 +219,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -225,54 +242,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,31 +289,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,151 +463,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,17 +483,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,11 +518,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,7 +537,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,34 +560,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,148 +585,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1076,10 +1078,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C27"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1107,278 +1109,289 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1002</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
+        <v>1025</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
         <v>1026</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
